--- a/assets/full_pay.xlsx
+++ b/assets/full_pay.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -59,6 +59,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -329,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -417,273 +485,249 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12/2017</t>
+          <t>09/2020</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DANTAS TEIXEIRA JADILSON</t>
+          <t>ROSARIO DE MAXIMIANO ANAMIN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AVENUE BRUGMANN 447</t>
+          <t>SPANJEBERGSTRAAT 11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1180 UCCLE</t>
+          <t>1700 DILBEEK</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>781017-583-33</t>
+          <t>800131-554-09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11,50</t>
+          <t>12,06</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">14 </t>
-        </is>
-      </c>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.254,55</t>
+          <t>1.298,47</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12/2017</t>
+          <t>09/2020</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ROSARTO DE MAXIMIANO ANAMIN</t>
+          <t>NESTMAN EWA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SPANJEBERGSTRAAT 11</t>
+          <t>1083 GANSHOREN</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1700 DILBEEK</t>
+          <t>AVENUE MARIE DE HONGRIE 73 bus 13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>800131-554-09</t>
+          <t>680619-552-57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11,50</t>
+          <t>12,3318</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>31:00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">13 </t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
+          <t>32:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.332,03</t>
+          <t>0,00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12/2017</t>
+          <t>09/2020</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NESTMAN EWA</t>
+          <t>CHABEREK KATARZYNA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CHAUSS(cid:201)E DE BRUXELLES 345</t>
+          <t>KAREELBAKKERIJSTRAAT 10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1780 WEMMEL</t>
+          <t>1853 STROMBEEK-BEVER</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>680619-552-57</t>
+          <t>691031-540-49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11,76</t>
+          <t>12,444</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>32:00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12 </t>
-        </is>
-      </c>
+          <t>33:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>142</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.133,30</t>
+          <t>1.749,93</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12/2017</t>
+          <t>09/2020</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHABEREK KATARZYNA</t>
+          <t>KRYNSKA BOZENA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>KAREELBAKKERIJSTRAAT 10</t>
+          <t>1140 EVERE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1853 STROMBEEK-BEVER</t>
+          <t>AVENUE DE L’OUD KAPELLEKE 5 bus B-6</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>691031-540-49</t>
+          <t>670226-468-76</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11,87</t>
+          <t>12,3318</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>38:00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">14 </t>
-        </is>
-      </c>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>77</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.512,39</t>
+          <t>926,64</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12/2017</t>
+          <t>09/2020</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AVENUE DE L’OUD KAPELLEKE 5 bus B-6</t>
+          <t>MOJSIEJ KRYSTYNA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>KRYNSKA BOZENA</t>
+          <t>RUE DE LA PROCESSION 16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1140 EVERE</t>
+          <t>1070 ANDERLECHT</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>670226-468-76</t>
+          <t>660219-546-90</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>11,76</t>
+          <t>12,444</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -691,42 +735,34 @@
           <t>38:00</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12 </t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.610,24</t>
+          <t>0,00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12/2017</t>
+          <t>09/2020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MOJSIEJ KRYSTYNA</t>
+          <t>URBAN ELWIRA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RUE DE LA PROCESSION 16</t>
+          <t>RUE VICTOR RAUTER 73</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -736,153 +772,6619 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>660219-546-90</t>
+          <t>880612-406-57</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11,87</t>
+          <t>12,1278</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>38:00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9 </t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+          <t>30:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>125</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.017,29</t>
+          <t>1.452,90</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12/2017</t>
+          <t>09/2020</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>KAMINSKA ZOFIA</t>
+          <t>KURASZ MAGDA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RUE DU MERINOS 33 bus 2</t>
+          <t>RUE DU SILLON 140 bus 12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1210 SAINT-JOSSE-TEN-NOODE</t>
+          <t>1070 ANDERLECHT</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>581103-532-91</t>
+          <t>780918-524-55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11,76</t>
+          <t>12,3318</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>33:30</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">19 </t>
-        </is>
-      </c>
+          <t>29:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>89</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.516,86</t>
+          <t>1.012,82</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12/2017</t>
+          <t>09/2020</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>URBAN ELWIRA</t>
+          <t>SZEWCOW RENATA ELZBIETA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RUE VICTOR RAUTER 73</t>
+          <t>RAMPELBERGSTRAAT 32 bus 3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1070 ANDERLECHT</t>
+          <t>1830 MACHELEN (BT)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>880612-406-57</t>
+          <t>790915-446-50</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11,57</t>
+          <t>12,444</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>24:00</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12 </t>
-        </is>
-      </c>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1.485,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PERKOWSKA JANINA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CHAUSSÉE DE LOUVAIN 468</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1030 SCHAERBEEK</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>501206-442-27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12,3318</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>30:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1.338,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>JODLOWSKA JADWIGA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>RUE SAINT JOSSE 19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1210 SAINT-JOSSE-TEN-NOODE</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>660816-572-02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>12,444</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>33:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>80,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PYTEL MARZENA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>RUE EMILE WAUTERS 66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1020 BRUXELLES</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>720512-490-18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>26:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LADZIAK MARTA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>RUE CARDINAL LAVIGERIE 34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1040 ETTERBEEK</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>810117-416-06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>12,1278</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>29:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1.556,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ZDANOWSKA ANNA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>RUE DU SILLON 140 bus 12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>560104-558-20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>12,1788</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>27:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1.383,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>BORAWSKA ANIELA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CHAUSSEE DE MONS 1137 bus 5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>821203-470-82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>12,444</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1.474,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MILADOWSKA RENATA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>RUE CALVIN 26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1000 BRUXELLES</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>731101-460-53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>12,444</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1.478,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CZECHOWSKA KRYSTYNA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>RUE DU METAL 5</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1060 SAINT-GILLES</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>611204-456-13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>27:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1.037,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>GROCHOWSKA HALINA MALGORZATA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>RUE COLONEL VAN GELE 123</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1040 ETTERBEEK</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>641217-546-81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SABAT ILONA MARIA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>RUE CALVIN 26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1000 BRUXELLES</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>831208-522-95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>24:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1.103,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>KLICH MARZENA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KALKOVENVELD 22 bus 4</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1730 ASSE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>861211-446-47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1.484,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INEIA PATTA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>AVENUE DE LA BASILIQUE 108</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1082 BERCHEM-SAINTE-AGATHE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>710717-536-09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1.622,70</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NALEWAJK ANETA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>AVENUE MARIUS RENARD 2/28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>820414-628-23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>32:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1.452,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BORKULAK NATALIA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>RUE HAUTE 209</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1000 BRUXELLES</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>931113-456-20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MURAWIAK KARINA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>AVENUE HERGE 17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1050 IXELLES</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>780317-552-15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>25:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>1.009,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>LEWCZUK EWA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>AV ALBERT ELISABETH 17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1200 WOLUWE-SAINT-LAMBERT</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>810329-396-68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>12,4236</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1.373,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>LADZIAK BOZENA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>RUE GEORGE PETRE 1 bus 30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1210 SAINT-JOSSE-TEN-NOODE</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>591128-542-31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>12,1278</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>31:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1.422,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>JANUSZ BRYGIDA KINGA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>RUE FRAN˙OIS STROOBANT 35A</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1050 IXELLES</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>820708-612-46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>12,4134</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>28:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1.588,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>GRUSZFELD WIOLETTA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VIOOLTJESSTRAAT 3 bus 1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1601 RUISBROEK (BT.)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>730319-558-38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>12,444</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1.740,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PIRES MARLENE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>AV. VAN VOLXEM 243 bus 1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1190 FOREST</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>570617-632-97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>35:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1.154,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>VIEIRA SANTANA CRISTINA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>RUE DE L’ENSEIGNEMENT 33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1000 BRUXELLES</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>731110-482-52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>12,1278</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1.491,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>TWAROWSKA JOLANTA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>RUE DE SAVOIE 35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1060 SAINT-GILLES</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>570702-558-46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1.396,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NARCIZO LINDA MARTA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>PLACE BARA 26 bus 13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>620302-640-41</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>12,1278</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>871,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>JOZWIAKOWSKA ANETA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>RUE DOCTER VICTOR DE WALSPLEIN 13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3070 KORTENBERG</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>731010-634-87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>1.460,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MESQUITA BATISTA ALEXANDRA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>RUE GUSTAVE DEFNET 70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1060 SAINT-GILLES</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>720525-656-44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>LOREN˙O DE OLIVEIRA IVONETTE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>AV DE LA HOUSSIERE 63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>7090 BRAINE-LE-COMTE</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>601130-442-92</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>29:00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1.518,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>RODRIGUES ALECRIM DAIANE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>RUE DU CROISSANT 134 bus 11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1190 FOREST</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>860611-566-79</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>1.710,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ALBANIL LUCILA</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>RUE DE NEUFCH´TEL 44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1060 SAINT-GILLES</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>680916-452-74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>1.563,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ARASZEWICZ HALINA ELZBIETA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>RUE GODFROID KURTH 91 bus 1</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1140 EVERE</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>550909-526-34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>12,2604</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>18,60</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>OLEKSIUK KRYSTYNA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>RUE ADOLPHE MARBOTIN 79</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1030 SCHAERBEEK</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>700313-648-65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1.694,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DACIUK DOROTA ANNA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>RUE DE LA MELOPEE 2 bus 1</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1080 MOLENBEEK-SAINT-JEAN</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>710914-614-35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>12,2604</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>28:00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>757,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DASILVA MARCELE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>BOULEVARD JULES GRAINDOR 35 bus 5</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>760101-604-96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>12,1278</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>33:00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
           <t>93</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>1.466,53</t>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>1.025,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ROCHA NUNES CARVALHO HEDNAY</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>TERMOLENHOFLAAN 58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1731 ZELLIK</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>810314-474-52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>12,2604</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>35:00</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1.106,10</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NIZIOLEK VIOLETTA IZABELLA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>RUE LINNE 58 bus 3</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1210 SAINT-JOSSE-TEN-NOODE</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>631230-502-05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>12,44</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>1.675,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DE JESUS ARAUJO LETICIA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>RUE FELIX VANDE SANDE</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1081 KOEKELBERG</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>820624-596-60</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>12,2604</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>1.441,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PLONOWSKA JANINA MALGORZATA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>RUE DU CHAPEAU 17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>681220-554-67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>32:00</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>1.598,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MALKOW KAMILA ANNA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CHAUSSÉE DE NEERSTALLE 222</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1190 FOREST</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>930927-566-58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>12,2604</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>1.278,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DE JESUS ARAUJO MARIA ADELIA</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>RUE DES FUCHSIAS 136 bus 4</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1080 MOLENBEEK-SAINT-JEAN</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>630504-634-22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>12,2604</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>216,70</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ZEGREA ZOIA</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>AV DE SCHEUT 240</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>590620-568-16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>12,1788</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>33:00</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1.427,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>GON˙ALVES PAULA BASTOS PIRES MARLENE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>RUE RUYSDAEL 22</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>540505-572-59</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>12,1584</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>33:00</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>1.255,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SOUSA DO NASCIMENTOMARIA MARIA GRACIMAR</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>AVENUE DE L’EMERAUDE 66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1030 SCHAERBEEK</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>660417-492-24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>31:00</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>720,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>JOZWIAKOWSKI ROBERT</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>RUE DOKTER VICTOR DE WALSPLEIN 13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>3070 KORTENBERG</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>700818-653-42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>34:00</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>1.123,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ANTUNES DE SOUZA ELLIZA KENIA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>COUPURE 418</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>9000 GENT</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>860418-638-74</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>1.753,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NASCIMENTO LIMA SANTOSNATHALIA NATHALIA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>WAMBEEKSTRAAT 16</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1820 STEENOKKERZEEL</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>850507-492-51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>12,444</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>36:00</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>1.276,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MARTINS DOS SANTOS SILVANIA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>BOULEVARD DE LA REVISION 97</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>710730-504-39</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>12,2604</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>1.681,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CARDOSO DOS SANTOS RONITES</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>RUE GUILLAUME LEKEU 13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>580315-582-13</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>12,2808</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MOSIEJ MALGORZATA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>RUE BOERS 56</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1040 ETTERBEEK</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>651113-450-20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>12,0768</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>26:30</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>689,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>LUCIANO MARIA IZABEL</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>RUE MONTENEGRO 174</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1190 FOREST</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>560702-550-33</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>12,2604</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>25:00</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>320,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PEREIRA MARINS ELIENE</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>JAN BAPTIST WAUTERSSTRAAT 7 bus 3</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1600 SINT-PIETERS-LEEUW</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>770618-464-73</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>12,444</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>29:00</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1.592,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SILVA SOARES ANA LUIZA</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>AV CLEMENCEAU 97</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>530904-492-79</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>12,4746</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>678,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ARAUJO MORETTI CAROLINE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>AV DU GÉNÉRAL DE GAULLE 36 bus 8</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1050 IXELLES</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>920531-440-15</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>12,2502</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>1.415,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DE FATIMA BORGES ROSANA PATRICIA</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>RUE DE LA CLINIQUE 120 bus 1E</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>800525-494-83</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>12,53</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>1.202,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>RAMOS CHALEN MARIA ISABEL</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>RUE DE LA CROISETTE 28</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>7110 STREPY-BRACQUEGNIES</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>630605-616-17</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>12,3318</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>652,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>MURILLO CARVAJAL MARTA BEATRIZ</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>AV CROCKAERT 17 bus 1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1150 WOLUWE-SAINT-PIERRE</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>601111-488-34</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>12,444</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>1.280,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>MARINHO ALICE MARIA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CHAUSÉE DE FOREST 324 bus 1B</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1190 FOREST</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>590208-514-14</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>12,3828</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>490,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DOMINGOS DOS SANTOS SARAH</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>RUE DE MONTSERRAT 40 bus 2</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1000 BRUXELLES</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>770710-364-32</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>12,5562</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>35:00</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>1.260,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MOREIRA APARECIDO SILVA KENIA</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>BOULEVARD PRINCE DE LIEGE 93</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>680305-522-01</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>12,5562</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>27:00</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>1.235,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DE SOUSA PEREIRA CLELIA PATRICIA</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>RUE BERGMANNS 140</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1060 SAINT-GILLES</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>740622-424-27</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>12,444</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>720,60</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PONIATOWSKA KATARZYNA</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>RUE DOCTEUR ELIE LAMBOTTE 129</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1030 SCHAERBEEK</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>730107-484-70</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>12,3828</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>1.728,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>GON˙ALVES AMORIM MARIANA</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>RUE BOLLINCKX 252</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>920921-588-01</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>12,444</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>KIERCUL LUKASZ</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>RUE DE LA PROCESSION 16</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>920819-533-12</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>12,3828</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>33:00</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>698,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DRULA VALERICA</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>RUE DU CHARME 54</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1190 FOREST</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>710318-600-81</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>12,444</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1.432,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>TWAROWSKA AGNIESZKA</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>STROMBEEKLINDE 11</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1853 STROMBEEK-BEVER</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>830107-572-95</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>12,444</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>24:00</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>1.038,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>OKSIENTOWICZ ANETA DOROTA</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>DU MOUTONS 27B</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1180 UCCLE</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>720804-536-39</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>12,5868</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>1.847,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>LEHUDY PARRA MEJIA</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>ALEE VERTE 7 bus 15</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1000 BRUXELLES</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>681212-622-45</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>12,3828</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>37:00</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1.622,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>WOJSZKO AMELIA</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>SCHAERBEEKLEI 18</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1800 VILVOORDE</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>800211-496-92</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>12,444</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>690,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>SOMOIAG CAMELIA</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>RUE DES PLANTES 88 bus 2</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1210 SAINT-JOSSE-TEN-NOODE</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>840116-612-97</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>12,3828</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>552,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>FIGUEIREDO DA CRUZ QUEIROZ JAIRA</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>JOSEF CLAES 20</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1060 SAINT-GILLES</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>890118-564-93</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>12,3828</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>1.099,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DE SOUSA OLIVEIRA GRAZIELE</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>RUE DE LA BRASSERIE 160</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1050 IXELLES</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>830121-508-30</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>12,3828</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>35:00</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>1.634,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>MARTINEZ FRANCO MONTSERRAT</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>DE L’ENERGIE 44</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>750912-522-77</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>12,444</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>1.474,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ROMERO RESTREPO EDILMA</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>AVENUE MILCAMPS 237</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1030 SCHAERBEEK</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>550110-530-41</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>12,3828</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>8:50</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>RENATA RAMOS DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>AVENUE ERNEST CAMBIER 47 bus 6</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1030 SCHAERBEEK</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>760419-466-06</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>12,444</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>34:30</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>1.539,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>AMAYA DE RIVAS ESMERALDA</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>RUE DE PERVYSE 4</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1040 ETTERBEEK</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>820224-550-78</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>12,3828</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>1.531,70</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>BOROWA IWONA</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>ALLÉE DES MOUTONS 20</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1020 BRUXELLES</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>740531-536-26</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>12,3828</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>789,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PURPURA ALEXANDRE GIUSEPPE</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>RUE OMER THIRIAR 66 bus 4</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>7100 SAINT-VAAST</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>930114-301-75</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>12,2196</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>25:00</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>1.637,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>DOS SANTOS LIMA MARLENE ANA</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>DE LA FAUVETTE 32</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1180 UCCLE</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>650303-568-49</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>12,444</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>30:00</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>449,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>BORGES SCRIBONI PRISCILA</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>CHAUSÉE D’ALSEMBERG 12</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1060 SAINT-GILLES</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>850801-662-82</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>12,2604</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>32:00</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>1.201,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CALIN FILOFTEIA</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>RUE SAINT DENIS 77</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1190 FOREST</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>800201-718-73</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>11,781</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>679,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CONCEI˙AO FREITAS PATRICIA</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>RUE CLEMENT DE CLETY 5</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>801103-470-33</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>11,781</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>BEZERRA JOELMA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>AVENUE DES ANCIENS COMBATTANTS</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1140 EVERE</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>730826-416-05</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>11,781</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>25:00</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>1.173,70</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>PRUDZILOWICZ ELZBIETA</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>AVENUE DES SEPT BONNIERS 64</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1180 UCCLE</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>710725-442-57</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>12,1278</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>1.180,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>AREIAS DE FARIA DRITA</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>RUE DU CARDINAL 38</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1000 BRUXELLES</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>930222-488-43</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>11,8218</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>614,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ABREU DE SOUZA MARIA DAS NEVES</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>RUE DE SUEDE 19</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1060 SAINT-GILLES</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>710518-582-16</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>33:00</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>1.674,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>RUIZ JIMENEZ SILVIA</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>AVENUE DE L’HELIPORT 32 bus 58</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1000 BRUXELLES</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>900203-588-62</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>11,8218</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>30:00</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.077,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>YENNY CAROLINA ARIAS ROJAS</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>RUE DU BOIS SAUVAGE 14</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1000 BRUXELLES</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>951224-418-68</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>12,24</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>1.475,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>VALDIVIA GIULIANA</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>AVENUE DU TRANSVAL 29</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>5020 VEDRIN</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>740829-502-44</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>12,342</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>29:00</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>1.165,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>MONTOYA CUCALON ANGEL OSWALDO</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>DEMONSTHENSSTRAAT 69 bus 2</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>680002-761-25</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>12,1788</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>36:00</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>1.576,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>MARTINS DA ROCHA FERNANDA</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>RUE BARA 210-214 bus 4G</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>770916-606-12</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>11,8218</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>998,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>PAZOTTI PATRICIA</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>RUE JULES HANS 92 bus 1420</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1420 BRAINE-L’ALLEUD</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>840426-550-74</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>11,8218</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>31:00</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>LENI MOTTA MALDI</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>RUE HOTEL DES MONNAIES 35</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1060 SAINT-GILLES</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>600513-558-56</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>11,8218</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>30:00</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>1.052,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>FERNANDES MIRALDA</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>AVENUE ALFRED MADOUX 22</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1050 IXELLES</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>890321-646-32</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>11,9748</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>1.185,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>GOMES MATOS KELISSANDRA</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>RUE BATONNIER 14 bus 3</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1200 WOLUWE-SAINT-LAMBERT</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>791028-466-35</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>11,8218</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>35:00</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>1.507,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>TELES DE ALMEIDA BRANCA ELIANE</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>CHAUSEE D’ALSEMBERG 1061</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1180 UCCLE</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>790418-524-41</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>11,8218</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>304,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>GON˙ALVES PEREIRA DANIELLE</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>AVENUE DE BERCHEM-SAINTE-AGATHE</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1081 KOEKELBERG</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>840729-476-79</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>12,1278</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>31:00</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>1.205,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>NELDA OSMARA</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>RUE CAMUSEL 9</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1000 BRUXELLES</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>760630-530-14</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>11,8218</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>1.285,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>LAPINSKA ANNA</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>RUE DOCTEUR ELIE LAMBOTTE 129</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1030 SCHAERBEEK</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>680921-596-71</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>12,40</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>1.843,60</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>AREIAS DE FAIRA MARIA CELMIRA</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>RUE GUSTAVE DEFNET 71</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1060 SAINT-GILLES</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>730901-410-89</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>11,9238</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>25:00</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>724,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>BUBACH CASSIANA</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>RUE PIERRE DECOSTER 37</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1190 FOREST</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>800331-618-56</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>11,9238</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>24:00</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>1.133,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ROCHA DARLING ISABEL</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>CHAUSSEE DE NAMUR 18 bus 007</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1300 WAVRE</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>870315-488-37</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>12,0258</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>863,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>LUBOWICKA MAGDA</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>AVENUE DES EBURONS 8</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1780 WEMMEL</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>850926-544-39</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>11,8218</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>723,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>BORAWSKA BEATA</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>JEAN HEYMANS 8</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1020 BRUXELLES</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>990224-722-69</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>31:00</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>1.540,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>OJEDA JULIA</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1040 ETTERBEEK</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>CHAUSSÉE SAINT-PIERRE 258 bus 1</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>720213-450-07</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>11,8218</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>1.678,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>DA SILVA KENIA DARK</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>AVENUE DE LIBERTE 85 bus 8</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1080 MOLENBEEK-SAINT-JEAN</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>771020-560-42</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>11,9238</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>28:00</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>1.152,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>BENAVIDES FONSECA LILI YOBANA</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>BOULEVARD DU NEUVIEME DE LIGNE 27</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1000 BRUXELLES</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>910225-610-80</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>11,8218</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>1.090,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>BATISTA DE SIQUEIRA ELIANE</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>GALGSTRAAT 54</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1600 SINT-PIETERS-LEEUW</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>760313-518-30</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>11,8218</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>966,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>DE SOUZA BRITO LUZIA</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>RUE JACOBS FONTAINE 114</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1090 JETTE</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>830311-588-70</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>11,8218</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>1.570,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>SANTOS DA SILVA MORAIS JEANE CRISTINA</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>RUE DE LA TARENTELLE 2</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>810428-624-71</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>12,1278</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ALVES DE MELO PAULIANE</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>AVENUE VALKENEERS 11 bus B03</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1160 AUDERGHEM</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>810716-620-68</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>11,8218</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>30:00</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>1.508,60</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>DE LIMA ANA CRISTINA</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>RUE SAINT MICHEL 121</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1040 ETTERBEEK</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>720716-482-17</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>11,78</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>435,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>NAJARYAN LIANA</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>CHAUSEE DE BRUXELLES 362</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1780 WEMMEL</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>730808-504-69</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>11,9238</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>1.094,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>MARTIN MATEOS VERONICA</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>RUE DE GRAND HOSPICE 13</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1000 BRUXELLES</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>790801-586-32</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>12,0258</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>884,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>SOUZA DA SILVA WAGNER</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>AVENUE DE LA COURONNE 139</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1050 IXELLES</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>950829-619-77</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>11,78</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>1.022,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>PEREIRA DA SILVA JILLIELEN</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>RUE DEFACQZ 75 bus 03</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1050 IXELLES</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>930130-558-17</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>11,8218</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>28:00</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>1.334,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>DOMINGOS MAURA APARECIDA</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>CHAMP DU VERT CHASSEUR 20</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1000 BRUXELLES</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>710731-588-22</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>11,78</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>25:00</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>612,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>MARIN ANETA</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>RUE DE LA STATION 37 bus 3</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1440 BRAINE-LE-CHATEAU</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>671129-582-32</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>11,78</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>GRIGOR MARIA</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>BOULEVARD SYLVAIN DUPUIS 79/0002</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1070 ANDERLECHT</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>710326-630-05</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>11,78</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>698,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>CANDIDO FAUSTINO IVONE</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>CHAUSÉE DE LOUVAIN 12</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1000 BRUXELLES</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>620712-542-61</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>11,8218</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>1.635,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>COSTA DIAS JOICE</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>PIJPAENSSHOEK 60</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1500 HALLE</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>820330-614-35</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>12,342</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>36:00</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>1.821,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>BARCOS PAOLA</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>RUE DE L’UNION 48</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1210 SAINT-JOSSE-TEN-NOODE</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>840507-510-12</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>11,8218</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>727,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>COREAS SANTANA SARA</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>AVENUE EUDORE PIRMEZ</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1040 ETTERBEEK</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>880620-650-58</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>11,9238</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>894,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>PEREIRA DA SILVA MARIA CELIA</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>HERTOGENWEG 9</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>3080 TERVUREN</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>800720-506-41</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>11,8218</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>0,00</t>
         </is>
       </c>
     </row>

--- a/assets/full_pay.xlsx
+++ b/assets/full_pay.xlsx
@@ -2,27 +2,43 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
@@ -35,7 +51,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -48,17 +64,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -141,44 +181,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -205,15 +245,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -240,7 +279,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -252,231 +290,274 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L178"/>
+  <dimension ref="A1:O178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" xSplit="0" ySplit="1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="M5" activeCellId="0" pane="bottomLeft" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.58203125" defaultRowHeight="13.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col width="7.5703125" customWidth="1" min="1" max="1"/>
-    <col width="7.140625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="21.7109375" customWidth="1" min="3" max="3"/>
-    <col width="28.85546875" customWidth="1" min="4" max="4"/>
-    <col width="19.5703125" customWidth="1" min="5" max="5"/>
-    <col width="17.140625" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="10.140625" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="8.7109375" customWidth="1" min="9" max="9"/>
-    <col width="8.7109375" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="12.85546875" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="11.7109375" customWidth="1" min="12" max="12"/>
+    <col customWidth="1" max="1" min="1" style="3" width="7.57"/>
+    <col customWidth="1" max="2" min="2" style="3" width="7.14"/>
+    <col customWidth="1" max="3" min="3" style="3" width="21.72"/>
+    <col customWidth="1" max="4" min="4" style="3" width="28.86"/>
+    <col customWidth="1" max="5" min="5" style="3" width="19.57"/>
+    <col customWidth="1" max="6" min="6" style="3" width="17.14"/>
+    <col customWidth="1" max="7" min="7" style="3" width="8"/>
+    <col customWidth="1" max="8" min="8" style="3" width="10.14"/>
+    <col customWidth="1" max="10" min="9" style="3" width="8.710000000000001"/>
+    <col customWidth="1" max="11" min="11" style="3" width="12.86"/>
+    <col customWidth="1" max="12" min="12" style="3" width="10.18"/>
+    <col customWidth="1" max="13" min="13" style="3" width="10.55"/>
+    <col customWidth="1" max="14" min="14" style="3" width="12.26"/>
+    <col customWidth="1" max="15" min="15" style="3" width="11.71"/>
+    <col customWidth="1" max="1024" min="1024" style="3" width="10.17"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="13.8" r="1" s="4">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>period</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>emp nr</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>em name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>address</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>niss nr</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>price hr</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>hr contract</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>meal voucher</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>chomage</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>worked hours</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
+        <is>
+          <t>no_work</t>
+        </is>
+      </c>
+      <c r="M1" s="4" t="inlineStr">
+        <is>
+          <t>vacation</t>
+        </is>
+      </c>
+      <c r="N1" s="4" t="inlineStr">
+        <is>
+          <t>bank_holiday</t>
+        </is>
+      </c>
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>netto</t>
         </is>
@@ -536,6 +617,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>1.093,05</t>
         </is>
       </c>
@@ -592,7 +684,14 @@
           <t>66</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>1.341,73</t>
         </is>
@@ -652,6 +751,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>1.495,05</t>
         </is>
       </c>
@@ -708,7 +818,14 @@
           <t>52</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>697,86</t>
         </is>
@@ -758,7 +875,10 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
         <is>
           <t>0,00</t>
         </is>
@@ -816,7 +936,14 @@
           <t>139</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>1.701,54</t>
         </is>
@@ -876,6 +1003,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>62:00</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>693,90</t>
         </is>
       </c>
@@ -934,6 +1072,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>40:00</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>1.402,59</t>
         </is>
       </c>
@@ -991,6 +1140,17 @@
         </is>
       </c>
       <c r="L10" t="inlineStr">
+        <is>
+          <t>78:00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>570,76</t>
         </is>
@@ -1040,7 +1200,10 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
         <is>
           <t>0,00</t>
         </is>
@@ -1090,7 +1253,10 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
         <is>
           <t>0,00</t>
         </is>
@@ -1148,7 +1314,18 @@
           <t>92</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>1.247,94</t>
         </is>
@@ -1206,7 +1383,14 @@
           <t>115</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>1.276,96</t>
         </is>
@@ -1266,6 +1450,21 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>31:00</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>1.265,22</t>
         </is>
       </c>
@@ -1322,7 +1521,14 @@
           <t>145</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>1.694,07</t>
         </is>
@@ -1381,6 +1587,17 @@
         </is>
       </c>
       <c r="L17" t="inlineStr">
+        <is>
+          <t>24:00</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>1.155,80</t>
         </is>
@@ -1432,6 +1649,13 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
+          <t>45:00</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>0,00</t>
         </is>
       </c>
@@ -1489,6 +1713,21 @@
         </is>
       </c>
       <c r="L19" t="inlineStr">
+        <is>
+          <t>44:00</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>659,28</t>
         </is>
@@ -1538,7 +1777,10 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
         <is>
           <t>0,00</t>
         </is>
@@ -1588,7 +1830,14 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
         <is>
           <t>1.157,69</t>
         </is>
@@ -1648,6 +1897,21 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
+          <t>7:00</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>7:00</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>1.247,63</t>
         </is>
       </c>
@@ -1706,6 +1970,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>62:00</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>277,88</t>
         </is>
       </c>
@@ -1764,6 +2039,21 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>7:00</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>911,08</t>
         </is>
       </c>
@@ -1822,6 +2112,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>1.525,33</t>
         </is>
       </c>
@@ -1878,7 +2179,18 @@
           <t>93</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
         <is>
           <t>1.288,65</t>
         </is>
@@ -1938,6 +2250,21 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
+          <t>7:00</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>1.251,74</t>
         </is>
       </c>
@@ -1994,7 +2321,18 @@
           <t>127</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
         <is>
           <t>1.597,02</t>
         </is>
@@ -2054,6 +2392,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
+          <t>36:00</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
           <t>1.258,90</t>
         </is>
       </c>
@@ -2110,7 +2459,14 @@
           <t>77</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
         <is>
           <t>1.640,10</t>
         </is>
@@ -2168,7 +2524,14 @@
           <t>115</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>7:00</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>1.598,42</t>
         </is>
@@ -2226,7 +2589,14 @@
           <t>56</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
         <is>
           <t>1.443,45</t>
         </is>
@@ -2285,6 +2655,17 @@
         </is>
       </c>
       <c r="L33" t="inlineStr">
+        <is>
+          <t>51:00</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
         <is>
           <t>1.265,22</t>
         </is>
@@ -2334,7 +2715,10 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
         <is>
           <t>0,00</t>
         </is>
@@ -2394,6 +2778,21 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>39:00</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>800,08</t>
         </is>
       </c>
@@ -2450,7 +2849,18 @@
           <t>120</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
         <is>
           <t>1.527,56</t>
         </is>
@@ -2508,7 +2918,18 @@
           <t>115</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>30:00</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
         <is>
           <t>1.464,57</t>
         </is>
@@ -2566,7 +2987,18 @@
           <t>104</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>44:00</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
         <is>
           <t>1.407,98</t>
         </is>
@@ -2626,6 +3058,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
+          <t>60:00</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
           <t>716,15</t>
         </is>
       </c>
@@ -2684,6 +3127,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
           <t>1.385,61</t>
         </is>
       </c>
@@ -2740,7 +3194,14 @@
           <t>98</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>7:00</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
         <is>
           <t>1.247,19</t>
         </is>
@@ -2800,6 +3261,21 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>32:00</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>1.128,89</t>
         </is>
       </c>
@@ -2856,7 +3332,18 @@
           <t>46</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>98:00</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
         <is>
           <t>712,80</t>
         </is>
@@ -2914,7 +3401,14 @@
           <t>150</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>7:00</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
         <is>
           <t>1.667,16</t>
         </is>
@@ -2974,6 +3468,21 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>1.022,85</t>
         </is>
       </c>
@@ -3030,7 +3539,14 @@
           <t>148</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
         <is>
           <t>1.627,28</t>
         </is>
@@ -3090,6 +3606,17 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
           <t>1.551,62</t>
         </is>
       </c>
@@ -3148,6 +3675,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
           <t>1.567,25</t>
         </is>
       </c>
@@ -3206,6 +3744,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
           <t>1.391,16</t>
         </is>
       </c>
@@ -3264,6 +3813,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>5:00</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
           <t>1.496,83</t>
         </is>
       </c>
@@ -3320,7 +3880,14 @@
           <t>141</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
         <is>
           <t>1.713,90</t>
         </is>
@@ -3380,6 +3947,21 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
           <t>1.318,47</t>
         </is>
       </c>
@@ -3436,7 +4018,14 @@
           <t>114</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
         <is>
           <t>1.682,77</t>
         </is>
@@ -3486,7 +4075,10 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
         <is>
           <t>0,00</t>
         </is>
@@ -3546,6 +4138,17 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
+          <t>40:00</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
           <t>880,71</t>
         </is>
       </c>
@@ -3604,6 +4207,17 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
+          <t>73:00</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>5:00</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
           <t>429,09</t>
         </is>
       </c>
@@ -3660,7 +4274,14 @@
           <t>102</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
         <is>
           <t>1.419,86</t>
         </is>
@@ -3720,6 +4341,17 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
+          <t>39:00</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
           <t>462,86</t>
         </is>
       </c>
@@ -3777,6 +4409,17 @@
         </is>
       </c>
       <c r="L59" t="inlineStr">
+        <is>
+          <t>72:00</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
         <is>
           <t>911,17</t>
         </is>
@@ -3830,7 +4473,18 @@
           <t>7</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>145:00</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
         <is>
           <t>174,85</t>
         </is>
@@ -3888,7 +4542,10 @@
           <t>48</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
         <is>
           <t>615,85</t>
         </is>
@@ -3938,7 +4595,14 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
         <is>
           <t>1.121,34</t>
         </is>
@@ -3998,6 +4662,13 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
+          <t>30:00</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
           <t>510,30</t>
         </is>
       </c>
@@ -4056,6 +4727,17 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
+          <t>34:00</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>7:00</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
           <t>1.323,02</t>
         </is>
       </c>
@@ -4114,6 +4796,17 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
           <t>1.285,85</t>
         </is>
       </c>
@@ -4172,6 +4865,17 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
           <t>675,50</t>
         </is>
       </c>
@@ -4229,6 +4933,21 @@
         </is>
       </c>
       <c r="L67" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
         <is>
           <t>1.593,93</t>
         </is>
@@ -4280,6 +4999,17 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
+          <t>154:00</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
           <t>70,06</t>
         </is>
       </c>
@@ -4338,6 +5068,17 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
+          <t>84:00</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
           <t>696,73</t>
         </is>
       </c>
@@ -4395,6 +5136,21 @@
         </is>
       </c>
       <c r="L70" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
         <is>
           <t>1.383,96</t>
         </is>
@@ -4444,7 +5200,10 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
         <is>
           <t>0,00</t>
         </is>
@@ -4498,7 +5257,18 @@
           <t>131</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
         <is>
           <t>1.750,81</t>
         </is>
@@ -4558,6 +5328,17 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
+          <t>32:00</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
           <t>1.419,72</t>
         </is>
       </c>
@@ -4616,6 +5397,17 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
+          <t>43:00</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
           <t>568,70</t>
         </is>
       </c>
@@ -4674,6 +5466,17 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
           <t>479,45</t>
         </is>
       </c>
@@ -4732,6 +5535,17 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
+          <t>31:00</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
           <t>1.493,50</t>
         </is>
       </c>
@@ -4790,6 +5604,17 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
+          <t>27:00</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>5:00</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
           <t>1.418,52</t>
         </is>
       </c>
@@ -4847,6 +5672,21 @@
         </is>
       </c>
       <c r="L78" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>57:00</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>5:00</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
         <is>
           <t>1.109,56</t>
         </is>
@@ -4898,6 +5738,13 @@
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
+          <t>34:00</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
           <t>0,00</t>
         </is>
       </c>
@@ -4948,6 +5795,17 @@
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
+          <t>138:00</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>7:00</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
           <t>80,75</t>
         </is>
       </c>
@@ -5004,7 +5862,14 @@
           <t>48</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
         <is>
           <t>1.042,06</t>
         </is>
@@ -5064,6 +5929,17 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
           <t>780,12</t>
         </is>
       </c>
@@ -5122,6 +5998,17 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
+          <t>26:00</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>5:00</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
           <t>1.319,51</t>
         </is>
       </c>
@@ -5180,6 +6067,17 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
+          <t>58:00</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
           <t>828,43</t>
         </is>
       </c>
@@ -5238,6 +6136,17 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
+          <t>62:00</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
           <t>847,50</t>
         </is>
       </c>
@@ -5294,7 +6203,18 @@
           <t>46</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
         <is>
           <t>656,08</t>
         </is>
@@ -5346,6 +6266,17 @@
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
+          <t>154:00</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
           <t>67,64</t>
         </is>
       </c>
@@ -5402,7 +6333,14 @@
           <t>96</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
         <is>
           <t>1.124,64</t>
         </is>
@@ -5462,6 +6400,21 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
+          <t>53:00</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
           <t>1.118,76</t>
         </is>
       </c>
@@ -5518,7 +6471,14 @@
           <t>43</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
         <is>
           <t>965,64</t>
         </is>
@@ -5578,6 +6538,17 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
+          <t>42:00</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
           <t>1.219,65</t>
         </is>
       </c>
@@ -5636,6 +6607,17 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
+          <t>82:00</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
           <t>888,19</t>
         </is>
       </c>
@@ -5694,6 +6676,17 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
+          <t>40:00</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>7:00</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
           <t>1.018,51</t>
         </is>
       </c>
@@ -5750,7 +6743,18 @@
           <t>46</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>80:00</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
         <is>
           <t>680,64</t>
         </is>
@@ -5808,7 +6812,10 @@
           <t>80</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr">
         <is>
           <t>946,54</t>
         </is>
@@ -5867,6 +6874,17 @@
         </is>
       </c>
       <c r="L96" t="inlineStr">
+        <is>
+          <t>56:00</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
         <is>
           <t>790,80</t>
         </is>
@@ -5918,6 +6936,21 @@
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
+          <t>64:00</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>78:00</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
           <t>158,91</t>
         </is>
       </c>
@@ -5974,7 +7007,18 @@
           <t>106</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>34:00</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>7:00</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
         <is>
           <t>1.317,29</t>
         </is>
@@ -6034,6 +7078,17 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
           <t>544,85</t>
         </is>
       </c>
@@ -6090,7 +7145,18 @@
           <t>71</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>51:00</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
         <is>
           <t>885,74</t>
         </is>
@@ -6150,6 +7216,17 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
           <t>1.273,63</t>
         </is>
       </c>
@@ -6206,7 +7283,18 @@
           <t>140</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
         <is>
           <t>1.779,22</t>
         </is>
@@ -6266,6 +7354,17 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
+          <t>36:00</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
           <t>835,43</t>
         </is>
       </c>
@@ -6324,6 +7423,17 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
           <t>1.074,92</t>
         </is>
       </c>
@@ -6382,6 +7492,17 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
+          <t>48:00</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
           <t>1.505,84</t>
         </is>
       </c>
@@ -6440,6 +7561,17 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
+          <t>5:00</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>5:00</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
           <t>994,08</t>
         </is>
       </c>
@@ -6496,7 +7628,14 @@
           <t>118</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
         <is>
           <t>1.518,02</t>
         </is>
@@ -6554,7 +7693,14 @@
           <t>145</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
         <is>
           <t>1.691,29</t>
         </is>
@@ -6614,6 +7760,21 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
           <t>758,06</t>
         </is>
       </c>
@@ -6672,6 +7833,17 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
           <t>1.241,92</t>
         </is>
       </c>
@@ -6728,7 +7900,14 @@
           <t>80</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
         <is>
           <t>993,12</t>
         </is>
@@ -6788,6 +7967,17 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
           <t>1.493,99</t>
         </is>
       </c>
@@ -6846,6 +8036,17 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
           <t>1.540,76</t>
         </is>
       </c>
@@ -6902,7 +8103,14 @@
           <t>112</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
         <is>
           <t>1.465,94</t>
         </is>
@@ -6960,7 +8168,14 @@
           <t>43</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
         <is>
           <t>1.361,56</t>
         </is>
@@ -7020,6 +8235,17 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
+          <t>84:00</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>7:00</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
           <t>827,50</t>
         </is>
       </c>
@@ -7076,7 +8302,14 @@
           <t>99</t>
         </is>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
         <is>
           <t>1.231,75</t>
         </is>
@@ -7128,6 +8361,17 @@
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
+          <t>80:00</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
           <t>45,67</t>
         </is>
       </c>
@@ -7186,6 +8430,21 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
+          <t>41:00</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>42:00</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
           <t>350,07</t>
         </is>
       </c>
@@ -7244,6 +8503,17 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
+          <t>60:00</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>5:00</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
           <t>497,31</t>
         </is>
       </c>
@@ -7302,6 +8572,17 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
+          <t>25:00</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
           <t>645,66</t>
         </is>
       </c>
@@ -7359,6 +8640,21 @@
         </is>
       </c>
       <c r="L122" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
         <is>
           <t>1.510,61</t>
         </is>
@@ -7410,6 +8706,21 @@
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
+          <t>60:00</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>60:00</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
           <t>69,69</t>
         </is>
       </c>
@@ -7466,7 +8777,14 @@
           <t>124</t>
         </is>
       </c>
-      <c r="L124" t="inlineStr">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
         <is>
           <t>1.486,05</t>
         </is>
@@ -7524,7 +8842,18 @@
           <t>98</t>
         </is>
       </c>
-      <c r="L125" t="inlineStr">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
         <is>
           <t>1.185,23</t>
         </is>
@@ -7576,6 +8905,13 @@
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
+          <t>85:00</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr">
+        <is>
           <t>0,00</t>
         </is>
       </c>
@@ -7634,6 +8970,17 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
+          <t>60:00</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
           <t>804,73</t>
         </is>
       </c>
@@ -7692,6 +9039,17 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
+          <t>48:00</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
           <t>1.293,89</t>
         </is>
       </c>
@@ -7750,6 +9108,17 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
+          <t>40:00</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
           <t>1.372,80</t>
         </is>
       </c>
@@ -7808,6 +9177,17 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
+          <t>25:00</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>5:00</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
           <t>948,11</t>
         </is>
       </c>
@@ -7864,7 +9244,14 @@
           <t>132</t>
         </is>
       </c>
-      <c r="L131" t="inlineStr">
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
         <is>
           <t>1.541,06</t>
         </is>
@@ -7922,7 +9309,18 @@
           <t>96</t>
         </is>
       </c>
-      <c r="L132" t="inlineStr">
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
         <is>
           <t>1.178,76</t>
         </is>
@@ -7980,7 +9378,18 @@
           <t>52</t>
         </is>
       </c>
-      <c r="L133" t="inlineStr">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
         <is>
           <t>719,28</t>
         </is>
@@ -8038,7 +9447,14 @@
           <t>50</t>
         </is>
       </c>
-      <c r="L134" t="inlineStr">
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
         <is>
           <t>673,82</t>
         </is>
@@ -8097,6 +9513,17 @@
         </is>
       </c>
       <c r="L135" t="inlineStr">
+        <is>
+          <t>82:00</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
         <is>
           <t>573,22</t>
         </is>
@@ -8148,6 +9575,13 @@
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
+          <t>52:00</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr">
+        <is>
           <t>0,00</t>
         </is>
       </c>
@@ -8206,6 +9640,17 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
+          <t>74:00</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
           <t>1.036,57</t>
         </is>
       </c>
@@ -8263,6 +9708,17 @@
         </is>
       </c>
       <c r="L138" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>7:00</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
         <is>
           <t>682,44</t>
         </is>
@@ -8312,7 +9768,10 @@
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr">
         <is>
           <t>0,00</t>
         </is>
@@ -8370,7 +9829,14 @@
           <t>115</t>
         </is>
       </c>
-      <c r="L140" t="inlineStr">
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
         <is>
           <t>1.453,28</t>
         </is>
@@ -8430,6 +9896,17 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
+          <t>25:00</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>5:00</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
           <t>924,59</t>
         </is>
       </c>
@@ -8486,7 +9963,18 @@
           <t>107</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr">
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
         <is>
           <t>1.504,09</t>
         </is>
@@ -8544,7 +10032,14 @@
           <t>94</t>
         </is>
       </c>
-      <c r="L143" t="inlineStr">
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>7:00</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
         <is>
           <t>1.161,37</t>
         </is>
@@ -8596,6 +10091,17 @@
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
+          <t>154:00</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
           <t>68,57</t>
         </is>
       </c>
@@ -8644,7 +10150,10 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr">
         <is>
           <t>0,00</t>
         </is>
@@ -8704,6 +10213,17 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
           <t>1.607,26</t>
         </is>
       </c>
@@ -8762,6 +10282,17 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
+          <t>53:00</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
           <t>1.042,55</t>
         </is>
       </c>
@@ -8816,6 +10347,17 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
+          <t>26:00</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
           <t>705,92</t>
         </is>
       </c>
@@ -8874,6 +10416,17 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
+          <t>54:00</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
           <t>1.236,89</t>
         </is>
       </c>
@@ -8930,7 +10483,14 @@
           <t>136</t>
         </is>
       </c>
-      <c r="L150" t="inlineStr">
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
         <is>
           <t>1.593,35</t>
         </is>
@@ -8982,6 +10542,13 @@
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
+          <t>52:00</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr">
+        <is>
           <t>0,00</t>
         </is>
       </c>
@@ -9038,7 +10605,14 @@
           <t>86</t>
         </is>
       </c>
-      <c r="L152" t="inlineStr">
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
         <is>
           <t>1.059,59</t>
         </is>
@@ -9098,6 +10672,17 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
+          <t>24:00</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
           <t>1.020,20</t>
         </is>
       </c>
@@ -9155,6 +10740,17 @@
         </is>
       </c>
       <c r="L154" t="inlineStr">
+        <is>
+          <t>96:00</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
         <is>
           <t>357,29</t>
         </is>
@@ -9206,6 +10802,21 @@
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
+          <t>76:00</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>68:00</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
           <t>91,69</t>
         </is>
       </c>
@@ -9262,7 +10873,14 @@
           <t>144</t>
         </is>
       </c>
-      <c r="L156" t="inlineStr">
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
         <is>
           <t>1.667,41</t>
         </is>
@@ -9320,7 +10938,14 @@
           <t>115</t>
         </is>
       </c>
-      <c r="L157" t="inlineStr">
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
         <is>
           <t>1.515,71</t>
         </is>
@@ -9378,7 +11003,14 @@
           <t>145</t>
         </is>
       </c>
-      <c r="L158" t="inlineStr">
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
         <is>
           <t>1.766,57</t>
         </is>
@@ -9436,7 +11068,14 @@
           <t>152</t>
         </is>
       </c>
-      <c r="L159" t="inlineStr">
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
         <is>
           <t>1.687,55</t>
         </is>
@@ -9494,7 +11133,14 @@
           <t>127</t>
         </is>
       </c>
-      <c r="L160" t="inlineStr">
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
         <is>
           <t>1.674,72</t>
         </is>
@@ -9554,6 +11200,17 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
+          <t>74:00</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
           <t>886,51</t>
         </is>
       </c>
@@ -9612,6 +11269,17 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
+          <t>42:00</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>5:00</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
           <t>840,15</t>
         </is>
       </c>
@@ -9670,6 +11338,17 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
+          <t>7:00</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
           <t>1.350,91</t>
         </is>
       </c>
@@ -9728,6 +11407,17 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
+          <t>61:00</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>5:00</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
           <t>1.075,40</t>
         </is>
       </c>
@@ -9786,6 +11476,21 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
+          <t>38:00</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>68:00</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>7:00</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
           <t>795,12</t>
         </is>
       </c>
@@ -9842,7 +11547,18 @@
           <t>115</t>
         </is>
       </c>
-      <c r="L166" t="inlineStr">
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>29:00</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
         <is>
           <t>1.845,60</t>
         </is>
@@ -9902,6 +11618,17 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
           <t>1.738,79</t>
         </is>
       </c>
@@ -9958,7 +11685,18 @@
           <t>122</t>
         </is>
       </c>
-      <c r="L168" t="inlineStr">
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
         <is>
           <t>1.592,19</t>
         </is>
@@ -10016,7 +11754,14 @@
           <t>51</t>
         </is>
       </c>
-      <c r="L169" t="inlineStr">
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
         <is>
           <t>659,35</t>
         </is>
@@ -10074,7 +11819,14 @@
           <t>78</t>
         </is>
       </c>
-      <c r="L170" t="inlineStr">
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
         <is>
           <t>1.241,56</t>
         </is>
@@ -10132,7 +11884,14 @@
           <t>15</t>
         </is>
       </c>
-      <c r="L171" t="inlineStr">
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
         <is>
           <t>491,39</t>
         </is>
@@ -10192,6 +11951,17 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
+          <t>6:00</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
           <t>673,99</t>
         </is>
       </c>
@@ -10248,7 +12018,14 @@
           <t>140</t>
         </is>
       </c>
-      <c r="L173" t="inlineStr">
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
         <is>
           <t>1.644,40</t>
         </is>
@@ -10306,7 +12083,14 @@
           <t>124</t>
         </is>
       </c>
-      <c r="L174" t="inlineStr">
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
         <is>
           <t>1.424,06</t>
         </is>
@@ -10364,7 +12148,14 @@
           <t>74</t>
         </is>
       </c>
-      <c r="L175" t="inlineStr">
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
         <is>
           <t>893,75</t>
         </is>
@@ -10422,7 +12213,14 @@
           <t>89</t>
         </is>
       </c>
-      <c r="L176" t="inlineStr">
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
         <is>
           <t>1.066,87</t>
         </is>
@@ -10480,7 +12278,14 @@
           <t>109</t>
         </is>
       </c>
-      <c r="L177" t="inlineStr">
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>5:00</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
         <is>
           <t>1.344,41</t>
         </is>
@@ -10538,13 +12343,22 @@
           <t>89</t>
         </is>
       </c>
-      <c r="L178" t="inlineStr">
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>4:00</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
         <is>
           <t>1.095,36</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>